--- a/Data_science_outputs/200pop/avg_analysis/avg_analysis_2.xlsx
+++ b/Data_science_outputs/200pop/avg_analysis/avg_analysis_2.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3661.39539280251</v>
+        <v>2156.039195262555</v>
       </c>
       <c r="C3" t="n">
         <v>1591.575658263888</v>
       </c>
       <c r="D3" t="n">
-        <v>1661.614788042231</v>
+        <v>158.4280988660578</v>
       </c>
       <c r="E3" t="n">
         <v>411.1554377834844</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1888.518121980227</v>
+        <v>903.8118505389275</v>
       </c>
       <c r="C4" t="n">
         <v>822.861369585179</v>
       </c>
       <c r="D4" t="n">
-        <v>1570.807504420227</v>
+        <v>112.6306310535139</v>
       </c>
       <c r="E4" t="n">
         <v>124.2068750936203</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>631.8953342465744</v>
+        <v>650.7692219178074</v>
       </c>
       <c r="C5" t="n">
         <v>316.8022666666668</v>
       </c>
       <c r="D5" t="n">
-        <v>7.671232876712334e-05</v>
+        <v>0.0001013698630136</v>
       </c>
       <c r="E5" t="n">
         <v>154.2494849315067</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1880.243392465753</v>
+        <v>1409.902009589038</v>
       </c>
       <c r="C6" t="n">
         <v>890.9601583333335</v>
       </c>
       <c r="D6" t="n">
-        <v>55.89061027397264</v>
+        <v>41.91803013698635</v>
       </c>
       <c r="E6" t="n">
         <v>303.9678191780819</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3823.663328767124</v>
+        <v>1862.578558904111</v>
       </c>
       <c r="C7" t="n">
         <v>1311.438116666667</v>
       </c>
       <c r="D7" t="n">
-        <v>1668.164383561644</v>
+        <v>144.3288136986301</v>
       </c>
       <c r="E7" t="n">
         <v>421.6575534246575</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4940.75683767123</v>
+        <v>2924.263456849315</v>
       </c>
       <c r="C8" t="n">
         <v>2251.767549999999</v>
       </c>
       <c r="D8" t="n">
-        <v>3360</v>
+        <v>280</v>
       </c>
       <c r="E8" t="n">
         <v>528.989755479452</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6759.141947945205</v>
+        <v>4096.821336986302</v>
       </c>
       <c r="C9" t="n">
         <v>3652.411266666665</v>
       </c>
       <c r="D9" t="n">
-        <v>3360.000016438356</v>
+        <v>280.0000246575343</v>
       </c>
       <c r="E9" t="n">
         <v>683.741271232876</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>5272409.365635613</v>
+        <v>3104696.441178081</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>2291868.947899999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4338851712381764</v>
+        <v>0.7358194888566576</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>2392725.294780822</v>
+        <v>228136.4623671233</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4538200903700823</v>
+        <v>0.07348108476607029</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>592063.8304082183</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1122947383917414</v>
+        <v>0.1906994263772722</v>
       </c>
     </row>
   </sheetData>
